--- a/biology/Zoologie/Aixaphis/Aixaphis.xlsx
+++ b/biology/Zoologie/Aixaphis/Aixaphis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aixaphis est un genre fossile d'insectes hémiptères de la famille des Aphididae. L'espèce type et seule espèce est Aixaphis oligocenica (Théobald, 1937), et en 2022, ce genre est resté monotypique.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aixaphis oligocenica a été décrite en 1937 par Théobald sous le protonyme Tetraneura oligocenica[1],[2]. L'holotype A 1017 vient de la collection personnelle de Nicolas Théobald[2]. 
-L'échantillon fut prêté en 1968-1969 par le paléontologue français à l'entomologiste danois Ole Engel Heie (1926-2019)[3]. Ce dernier reconnut alors l'holotype comme un nouveau genre en 1970.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aixaphis oligocenica a été décrite en 1937 par Théobald sous le protonyme Tetraneura oligocenica,. L'holotype A 1017 vient de la collection personnelle de Nicolas Théobald. 
+L'échantillon fut prêté en 1968-1969 par le paléontologue français à l'entomologiste danois Ole Engel Heie (1926-2019). Ce dernier reconnut alors l'holotype comme un nouveau genre en 1970.
 </t>
         </is>
       </c>
